--- a/课程内容/STM32H7.xlsx
+++ b/课程内容/STM32H7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30825" windowHeight="13710"/>
+    <workbookView windowWidth="20531" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>STM32H7</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>MDK5软件入门</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
   <si>
     <t>下载与调试</t>
@@ -112,10 +115,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +130,73 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -138,6 +208,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -146,135 +239,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,37 +285,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,19 +411,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,19 +441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,97 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,41 +564,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,6 +579,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,22 +616,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -669,166 +645,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,9 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1204,296 +1194,301 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="37.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="9" style="2"/>
+    <col min="3" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="6">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="6">
         <v>9</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7">
-        <v>3</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="6">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="7">
-        <v>6</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="7">
-        <v>7</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="7">
-        <v>8</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="6">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="7">
-        <v>9</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1522,7 +1517,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1539,7 +1534,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/课程内容/STM32H7.xlsx
+++ b/课程内容/STM32H7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20531" windowHeight="10500"/>
+    <workbookView windowWidth="20531" windowHeight="10500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,10 +113,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -139,6 +139,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -146,25 +147,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,15 +187,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,11 +231,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,8 +260,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,44 +275,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -285,187 +285,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,17 +568,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,41 +642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -665,6 +650,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -673,10 +673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,16 +685,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,115 +703,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1193,8 +1193,8 @@
   <sheetPr/>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -1274,7 +1274,9 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5">
@@ -1284,7 +1286,9 @@
         <v>10</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5">
@@ -1294,7 +1298,9 @@
         <v>11</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5">
@@ -1513,7 +1519,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/课程内容/STM32H7.xlsx
+++ b/课程内容/STM32H7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20531" windowHeight="10500" activeTab="1"/>
+    <workbookView windowWidth="20531" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,40 +133,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,6 +238,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -187,92 +262,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -285,19 +285,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,163 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,11 +570,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,24 +618,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,35 +651,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,10 +673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,34 +685,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,97 +724,94 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1193,8 +1193,8 @@
   <sheetPr/>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -1310,7 +1310,9 @@
         <v>12</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5">
@@ -1322,7 +1324,9 @@
       <c r="C10" s="6">
         <v>3</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5">
@@ -1332,7 +1336,9 @@
         <v>14</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5">
@@ -1342,7 +1348,9 @@
         <v>15</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5">
@@ -1352,7 +1360,9 @@
         <v>16</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5">
@@ -1519,8 +1529,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/课程内容/STM32H7.xlsx
+++ b/课程内容/STM32H7.xlsx
@@ -115,8 +115,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -132,8 +132,99 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,89 +238,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -239,38 +247,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,55 +285,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,19 +435,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,103 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,30 +564,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,26 +588,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,6 +621,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -673,10 +673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,133 +685,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -1374,7 +1374,9 @@
       <c r="C14" s="6">
         <v>4</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5">

--- a/课程内容/STM32H7.xlsx
+++ b/课程内容/STM32H7.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>STM32H7</t>
   </si>
@@ -75,10 +75,16 @@
     <t>电容触摸按键实验</t>
   </si>
   <si>
+    <t>略</t>
+  </si>
+  <si>
     <t>OLED实验</t>
   </si>
   <si>
     <t>内存保护实验</t>
+  </si>
+  <si>
+    <t>SDRAM</t>
   </si>
   <si>
     <t>TFTLCD实验</t>
@@ -113,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -132,86 +138,116 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,45 +260,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,13 +291,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,25 +417,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,139 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,60 +570,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,8 +592,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,6 +603,60 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,137 +691,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,6 +841,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,10 +1203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -1386,36 +1398,42 @@
         <v>18</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="5">
+        <v>22</v>
+      </c>
+      <c r="C18" s="9">
         <v>5</v>
       </c>
       <c r="D18" s="5"/>
@@ -1425,11 +1443,9 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="6">
-        <v>6</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C19" s="10"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4">
@@ -1437,9 +1453,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="C20" s="6">
+        <v>6</v>
+      </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4">
@@ -1447,11 +1465,9 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="6">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C21" s="8"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4">
@@ -1459,9 +1475,11 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="C22" s="6">
+        <v>7</v>
+      </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4">
@@ -1469,11 +1487,9 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="6">
-        <v>8</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C23" s="8"/>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
@@ -1481,9 +1497,11 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="C24" s="6">
+        <v>8</v>
+      </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4">
@@ -1491,11 +1509,9 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="6">
-        <v>9</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4">
@@ -1503,22 +1519,35 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="C26" s="6">
+        <v>9</v>
+      </c>
       <c r="D26" s="5"/>
     </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/课程内容/STM32H7.xlsx
+++ b/课程内容/STM32H7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20531" windowHeight="10500"/>
+    <workbookView windowWidth="20565" windowHeight="18630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -139,9 +139,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,6 +227,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -168,115 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,19 +291,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,163 +459,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,6 +570,15 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,30 +611,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -642,6 +627,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,137 +691,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,12 +841,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1206,10 +1200,10 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="37.75" style="1" customWidth="1"/>
@@ -1433,10 +1427,12 @@
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5">
@@ -1445,8 +1441,10 @@
       <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5">
@@ -1458,7 +1456,9 @@
       <c r="C20" s="6">
         <v>6</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5">
@@ -1468,7 +1468,9 @@
         <v>25</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5">
@@ -1564,7 +1566,7 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1581,7 +1583,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/课程内容/STM32H7.xlsx
+++ b/课程内容/STM32H7.xlsx
@@ -139,21 +139,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +176,35 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -182,20 +212,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -227,54 +244,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -291,13 +291,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,169 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,78 +570,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,6 +591,69 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -671,6 +662,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -679,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,133 +691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,7 +1200,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1482,7 +1482,9 @@
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5">
@@ -1492,7 +1494,9 @@
         <v>27</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5">

--- a/课程内容/STM32H7.xlsx
+++ b/课程内容/STM32H7.xlsx
@@ -139,14 +139,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +175,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -182,105 +281,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -291,25 +291,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,19 +447,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,133 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,6 +570,15 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,32 +607,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,15 +633,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -663,11 +642,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,31 +679,31 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,112 +712,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,7 +1200,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1508,7 +1508,9 @@
       <c r="C24" s="6">
         <v>8</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5">
@@ -1518,7 +1520,9 @@
         <v>29</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5">
@@ -1530,7 +1534,9 @@
       <c r="C26" s="6">
         <v>9</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5">
@@ -1540,7 +1546,9 @@
         <v>31</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
